--- a/data/trans_camb/P21_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P21_R-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-6,32</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,58</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-5.882217412249821</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2841103669107226</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.77854187742238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-15,41; 0,98</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,77; 9,99</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,28; 3,56</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-15.10088912510054</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.53366734375326</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.428892410415196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-36,57%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,23%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-13,5%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.943732301673766</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.906024074560541</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.25261036004013</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-69,56; 9,83</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-31,26; 59,68</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-41,01; 20,75</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.3404525548803771</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.01345416122895371</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1454831489948682</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,32</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.6616845376626617</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.3388266065082975</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.4191596559986684</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,45; 17,93</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,26; 5,14</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,6; 9,38</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.1573671882651803</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.545962278306991</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2023395712173545</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>13,37%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-12,67%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,38%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>2.068317078126858</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.755767947265571</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.226202094703068</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-40,92; 114,97</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-39,89; 23,42</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-28,43; 44,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.26230488439026</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.82541803966334</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.420612054206234</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-9,39</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,63</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-4,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.65888125694988</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.781643990498349</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.049099293393645</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-17,84; -0,28</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,43; 6,78</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-11,54; 0,41</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.0964544184054774</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.06705782045006742</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.009538108848773246</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-30,55%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,5%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-17,67%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.4367830158204426</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.3558299349999854</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2670276908443678</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-50,39; -0,53</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-26,25; 31,77</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-35,27; 1,88</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.934303403015023</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.3593119884183012</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.4375851682969029</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-10.16136735546395</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.368010017762993</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-5.211991764620047</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,86; 7,53</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-6,34; 6,19</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,01; 4,3</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-18.59665454650288</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-7.215568803383511</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-11.86685817359876</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>1,2%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-2,72%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-1,26%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-0.83729317758957</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>7.02014686747782</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.2120892157241791</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-34,02; 52,37</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-25,65; 34,56</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-23,68; 24,94</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.3307447348457331</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.01453798126087156</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.1862624040251276</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-11,03</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-11,98</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-11,44</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.5322460903449452</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2495916008717472</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.3642411159742325</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-19,41; -4,09</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-20,68; -3,45</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-17,04; -5,7</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>-0.03458197823129758</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.3395743404663512</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.009967762227223982</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-45,55%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-38,45%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-41,36%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.08345367396112024</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.4011460486409907</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.1965713342872516</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-66,41; -19,99</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-57,07; -11,99</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-54,89; -23,25</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.727414469558407</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.173721535112751</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.112357445133848</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-16,91</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-5,99</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-10,68</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>7.176530884280141</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.995590583322173</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>4.433356487123977</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-26,04; -5,92</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-14,04; 1,95</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-16,88; -4,19</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.004894649050710102</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.01865071586591871</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.01013942343568097</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-47,18%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-19,75%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-32,68%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.3399327282151638</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2550223553944692</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.23722396944804</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-65,27; -16,42</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-41,33; 7,33</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-47,33; -12,83</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.5292661731825724</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.3889706177935597</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.2540938176540846</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-6,51</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-3,42</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-4,93</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-11.26066079746048</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-12.0954931778945</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-11.62325052442881</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-10,83; -2,47</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-6,46; -0,14</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-7,33; -2,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-19.46265845515467</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-20.7298897175757</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-17.17051025297667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-26,56%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-13,15%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-19,51%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>-4.286377515464357</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>-3.697257735902647</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>-5.89336973630814</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-40,07; -9,56</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-23,53; -0,62</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-27,83; -9,93</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.4648873709348565</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.3882328920774806</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.4202740292215204</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.6681342318023511</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.5791628993431768</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.5566784981961714</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>-0.2047101343443511</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>-0.1330468272797696</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>-0.2350765238123254</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-17.25601149730563</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-6.172095679069289</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-10.90984004140953</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-26.23719725560061</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-14.41110927233599</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-16.85881603879234</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>-6.522501842045567</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>1.706690273994491</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>-4.385570574449618</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.4815936559106491</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.2033997986957131</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.3337115412610731</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.6656842355168821</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.4280220123842352</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.4834747907908262</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>-0.1829084718945796</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.06207823134749552</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>-0.1352707515398045</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-6.83353407985057</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-3.296384963712637</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-5.022406541186461</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-10.97660039590265</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-6.339875179822853</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-7.410604146266533</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>-2.960345456746945</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>0.2525087435459619</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>-2.379686950308594</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.2786666250886628</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.1268300687026011</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.1987232154904894</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.4103897959364295</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.2283925225283206</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.2810725137490779</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>-0.1286701703994613</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.01189543803718682</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>-0.09706130600455921</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
